--- a/VB06_BULK_IMPORTING_SQL_SERVER/SQL_QUERIES.xlsx
+++ b/VB06_BULK_IMPORTING_SQL_SERVER/SQL_QUERIES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\VBA_MINI_PROJECTS\VB04_TA_GROUP_DON_DAT_HANG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\VBA_MINI_PROJECTS\VB06_BULK_IMPORTING_SQL_SERVER\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <t xml:space="preserve">USE </t>
@@ -728,6 +728,287 @@
     MA_NL_CHINH Varchar(50),
     TEN_NL_CHINH nVarchar(500),
     DVT nVarchar(50),
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_DANH_MUC_CHI_TIET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_CHI_TIET Varchar(50),
+    TEN_CHI_TIET nVarchar(500),
+    DVT nVarchar(50),
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_DANH_MUC_NGUYEN_LIEU_PHU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_NL_PHU Varchar(50),
+    TEN_NL_PHU nVarchar(500),
+    DVT nVarchar(50),
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_DANH_MUC_PHE_LIEU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_PHE_LIEU Varchar(50),
+    TEN_PHE_LIEU nVarchar(500),
+    DVT nVarchar(50),
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_DANH_MUC_THU_LIEU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_THU_LIEU Varchar(50),
+    TEN_THU_LIEU nVarchar(500),
+    DVT nVarchar(50),
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_BOM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_THANH_PHAM Varchar(50),
+    TEN_THANH_PHAM nVarchar(500),
+    DVT_THANH_PHAM nVarchar(50),
+    MA_THANH_PHAN Varchar(50),
+    TEN_THANH_PHAN nVarchar(500),
+    DVT_THANH_PHAN nVarchar(50),
+    DINH_MUC_LY_THUYET Decimal(15,2),
+    TY_LE_HAO_HUT Decimal(15,2),
+    DINH_MUC_THUC_TE Decimal(15,2),
     XOA_SUA Varchar(10),
 )</t>
     </r>
@@ -1107,7 +1388,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,33 +1439,50 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="77.85546875" customWidth="1"/>
+    <col min="1" max="6" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="367.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/VB06_BULK_IMPORTING_SQL_SERVER/SQL_QUERIES.xlsx
+++ b/VB06_BULK_IMPORTING_SQL_SERVER/SQL_QUERIES.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <t xml:space="preserve">USE </t>
@@ -1009,6 +1009,82 @@
     DINH_MUC_LY_THUYET Decimal(15,2),
     TY_LE_HAO_HUT Decimal(15,2),
     DINH_MUC_THUC_TE Decimal(15,2),
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_FINISHED_PRODUCT_CATEGORIES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_THANH_PHAM Varchar(50),
+    TEN_THANH_PHAM NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLLATE Vietnamese_CI_AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+    DVT nVarchar(50),
     XOA_SUA Varchar(10),
 )</t>
     </r>
@@ -1439,28 +1515,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="77.85546875" customWidth="1"/>
+    <col min="1" max="7" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1479,9 +1555,21 @@
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="161.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/VB06_BULK_IMPORTING_SQL_SERVER/SQL_QUERIES.xlsx
+++ b/VB06_BULK_IMPORTING_SQL_SERVER/SQL_QUERIES.xlsx
@@ -16,7 +16,7 @@
     <sheet name="LA_2024" sheetId="3" r:id="rId2"/>
     <sheet name="MUTUAL_2024" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -658,336 +658,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TB_DANH_MUC_THANH_PHAM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_THANH_PHAM Varchar(50),
-    TEN_THANH_PHAM nVarchar(500),
-    DVT nVarchar(50),
-    XOA_SUA Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_DANH_MUC_NGUYEN_LIEU_CHINH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_NL_CHINH Varchar(50),
-    TEN_NL_CHINH nVarchar(500),
-    DVT nVarchar(50),
-    XOA_SUA Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_DANH_MUC_CHI_TIET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_CHI_TIET Varchar(50),
-    TEN_CHI_TIET nVarchar(500),
-    DVT nVarchar(50),
-    XOA_SUA Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_DANH_MUC_NGUYEN_LIEU_PHU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_NL_PHU Varchar(50),
-    TEN_NL_PHU nVarchar(500),
-    DVT nVarchar(50),
-    XOA_SUA Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_DANH_MUC_PHE_LIEU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_PHE_LIEU Varchar(50),
-    TEN_PHE_LIEU nVarchar(500),
-    DVT nVarchar(50),
-    XOA_SUA Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_DANH_MUC_THU_LIEU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_THU_LIEU Varchar(50),
-    TEN_THU_LIEU nVarchar(500),
-    DVT nVarchar(50),
-    XOA_SUA Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>TB_BOM</t>
     </r>
     <r>
@@ -1087,6 +757,528 @@
     DVT nVarchar(50),
     XOA_SUA Varchar(10),
 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_FINISHED_PRODUCT_STOCK_ISSUED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    SO_PHIEU Varchar(50),
+    NGAY_TREN_PHIEU datetime,
+    SO_PHIEU_DE_NGHI Varchar(50),
+    SO_PHIEU_KE_HOACH_SX Varchar(50),
+    SO_DON_DAT_HANG Varchar(50),
+    MA_DOI_TUONG Varchar(50),
+    TEN_DOI_TUONG Varchar(50) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    STT_DONG INT,
+    MA_THANH_PHAM Varchar(50),
+    TEN_THANH_PHAM NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLLATE Vietnamese_CI_AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+    DVT nVarchar(50),
+    SO_LUONG Decimal(15,2),
+    GHI_CHU nText,
+    ID_NHAN_VIEN Varchar(10),
+    NGAY_TAO_PHIEU datetime,
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_FINISHED_PRODUCT_STOCK_RECEIVED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    SO_PHIEU Varchar(50),
+    NGAY_TREN_PHIEU datetime,
+    SO_PHIEU_DE_NGHI Varchar(50),
+    SO_PHIEU_KE_HOACH_SX Varchar(50),
+    MA_DOI_TUONG Varchar(50),
+    TEN_DOI_TUONG Varchar(50) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    STT_DONG INT,
+    MA_THANH_PHAM Varchar(50),
+    TEN_THANH_PHAM NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLLATE Vietnamese_CI_AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+    DVT nVarchar(50),
+    SO_LUONG Decimal(15,2),
+    DON_GIA Decimal(15,2),
+    THANH_TIEN Decimal(15,2),
+    GHI_CHU nText,
+    ID_NHAN_VIEN Varchar(10),
+    NGAY_TAO_PHIEU datetime,
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_FINISHED_PRODUCT_STOCK_RETURNED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    SO_PHIEU Varchar(50),
+    NGAY_TREN_PHIEU datetime,
+    SO_PHIEU_DE_NGHI Varchar(50),
+    MA_DOI_TUONG Varchar(50),
+    TEN_DOI_TUONG Varchar(50) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COLLATE Vietnamese_CI_AI,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    STT_DONG INT,
+    MA_THANH_PHAM Varchar(50),
+    TEN_THANH_PHAM NVARCHAR(MAX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLLATE Vietnamese_CI_AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+    DVT nVarchar(50),
+    SO_LUONG Decimal(15,2),
+    SO_PHIEU_KE_HOACH_SX Varchar(50),
+    GHI_CHU nText,
+    ID_NHAN_VIEN Varchar(10),
+    NGAY_TAO_PHIEU datetime,
+    XOA_SUA Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+GO
+CREATE VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[VIEW_FINISHED_PRODUCT_LEDGER]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AS
+SELECT
+    [MA_THANH_PHAM],
+    [TEN_THANH_PHAM],
+    [DVT],
+ FROM [LA_2024].dbo.[TB_FINISHED_PRODUCT_CATEGORIES] 
+ WHERE
+    [XOA_SUA] = ''
+LEFT JOIN
+SELECT * FROM [MIEN_BAC_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; '';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_FINISHED_PRODUCT_OPENING_BALANCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_THANH_PHAM Varchar(50),
+    SO_LUONG_DAU_KY Decimal(15,2),
+    GIA_TRI_DAU_KY Decimal(15,2),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+GO
+CREATE VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[VIEW_FINISHED_PRODUCT_STOCK_RECEIVED]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AS
+SELECT
+    [MA_THANH_PHAM],
+    [TEN_THANH_PHAM],
+    [DVT],
+    SUM([SO_LUONG]) AS [TONG_SO_LUONG_NHAP],
+    SUM([THANH_TIEN]) AS [TONG_GIA_TRI_NHAP]
+ FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[LA_2024].dbo.[TB_FINISHED_PRODUCT_STOCK_RECEIVED]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ WHERE
+    [XOA_SUA] = ''
+GROUP BY
+    [MA_THANH_PHAM],
+    [TEN_THANH_PHAM],
+    [DVT]</t>
     </r>
   </si>
 </sst>
@@ -1464,7 +1656,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,10 +1707,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,46 +1723,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="161.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="161.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="202.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1779,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
